--- a/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="K114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="L114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="M114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="N114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="O114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="P114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="Q114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="R114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="S114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="T114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="U114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="V114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="W114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="X114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="Y114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="Z114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AA114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AB114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AC114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AD114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AE114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AF114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AG114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AH114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AI114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AJ114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AK114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AL114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AM114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AN114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AO114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AP114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AQ114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AR114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
       <c r="AS114" t="n">
-        <v>228560322.8</v>
+        <v>6045.46759</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="K100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="L100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="M100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="N100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="O100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="P100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="Q100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="R100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="S100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="T100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="U100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="V100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="W100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="X100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="Y100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="Z100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AA100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AB100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AC100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AD100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AE100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AF100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AG100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AH100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AI100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AJ100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AK100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AL100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AM100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AN100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AO100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AP100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AQ100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AR100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
       <c r="AS100" t="n">
-        <v>19046091.77</v>
+        <v>2495428.178</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="K101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="L101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="M101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="N101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="O101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="P101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="Q101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="R101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="S101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="T101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="U101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="V101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="W101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="X101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="Y101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="Z101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AA101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AB101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AC101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AD101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AE101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AF101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AG101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AH101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AI101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AJ101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AK101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AL101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AM101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AN101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AO101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AP101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AQ101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AR101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
       <c r="AS101" t="n">
-        <v>19794202.65</v>
+        <v>1979420.265</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="K103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="L103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="M103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="N103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="O103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="P103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="Q103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="R103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="S103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="T103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="U103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="V103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="W103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="X103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="Y103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="Z103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AA103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AB103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AC103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AD103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AE103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AF103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AG103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AH103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AI103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AJ103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AK103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AL103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AM103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AN103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AO103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AP103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AR103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
       <c r="AS103" t="n">
-        <v>2554078.097</v>
+        <v>2622894.833</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="K105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="L105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="M105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="N105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="O105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="P105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="Q105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="R105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="S105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="T105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="U105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="V105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="W105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="X105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="Y105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="Z105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AA105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AB105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AC105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AD105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AE105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AF105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AG105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AH105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AI105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AJ105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AK105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AL105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AM105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AN105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AO105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AP105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AQ105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AR105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
       <c r="AS105" t="n">
-        <v>6840113.218</v>
+        <v>1778429.437</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="K106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="L106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="M106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="N106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="O106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="P106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="Q106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="R106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="S106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="T106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="U106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="V106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="W106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="X106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="Y106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="Z106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AA106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AB106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AC106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AD106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AE106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AF106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AG106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AH106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AI106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AJ106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AK106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AL106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AM106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AN106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AO106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AP106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AQ106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AR106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
       <c r="AS106" t="n">
-        <v>8910730.631999999</v>
+        <v>214057.6979</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="K107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="L107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="M107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="N107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="O107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="P107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="Q107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="R107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="S107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="T107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="U107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="V107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="W107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="X107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="Y107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="Z107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AA107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AB107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AC107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AD107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AE107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AF107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AG107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AH107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AI107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AJ107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AK107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AL107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AM107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AN107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AO107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AP107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AQ107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AR107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
       <c r="AS107" t="n">
-        <v>3981018.772</v>
+        <v>7962037.544</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="K115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="L115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="M115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="N115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="O115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="P115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="Q115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="R115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="S115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="T115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="U115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="V115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="W115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="X115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="Y115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="Z115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AA115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AB115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AC115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AD115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AE115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AF115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AG115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AH115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AI115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AJ115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AK115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AL115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AM115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AN115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AO115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AP115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AQ115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AR115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
       <c r="AS115" t="n">
-        <v>744873.4738</v>
+        <v>7448734.738</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="K100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="L100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="M100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="N100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="O100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="P100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="Q100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="R100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="S100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="T100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="U100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="V100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="W100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="X100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="Y100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="Z100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AA100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AB100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AC100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AD100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AE100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AF100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AG100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AH100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AI100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AJ100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AK100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AL100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AM100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AN100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AO100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AP100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AQ100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AR100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
       <c r="AS100">
-        <v>13749417.12</v>
+        <v>2495428.178</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="K101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="L101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="M101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="N101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="O101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="P101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="Q101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="R101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="S101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="T101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="U101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="V101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="W101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="X101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="Y101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="Z101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AA101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AB101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AC101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AD101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AE101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AF101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AG101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AH101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AI101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AJ101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AK101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AL101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AM101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AN101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AO101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AP101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AQ101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AR101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
       <c r="AS101">
-        <v>1749365.733</v>
+        <v>1979420.265</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="K102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="L102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="M102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="N102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="O102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="P102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="Q102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="R102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="S102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="T102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="U102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="V102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="W102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="X102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="Y102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="Z102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AA102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AB102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AC102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AD102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AE102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AF102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AG102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AH102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AI102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AJ102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AK102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AL102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AM102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AN102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AO102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AP102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AQ102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AR102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
       <c r="AS102">
-        <v>755604.8906</v>
+        <v>1945979.072</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="K103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="L103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="M103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="N103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="O103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="P103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="Q103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="R103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="S103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="T103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="U103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="V103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="W103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="X103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="Y103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="Z103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AA103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AB103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AC103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AD103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AE103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AF103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AG103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AH103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AI103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AJ103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AK103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AL103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AM103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AN103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AO103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AP103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AQ103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AR103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
       <c r="AS103">
-        <v>111680.9084</v>
+        <v>2622894.833</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="K104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="L104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="M104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="N104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="O104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="P104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="Q104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="R104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="S104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="T104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="U104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="V104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="W104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="X104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="Y104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="Z104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AA104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AB104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AC104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AD104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AE104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AF104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AG104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AH104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AI104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AJ104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AK104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AL104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AM104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AN104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AO104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AP104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AQ104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AR104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
       <c r="AS104">
-        <v>9507.491603</v>
+        <v>1919560.137</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="K105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="L105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="M105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="N105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="O105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="P105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="Q105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="R105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="S105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="T105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="U105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="V105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="W105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="X105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="Y105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="Z105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AA105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AB105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AC105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AD105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AE105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AF105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AG105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AH105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AI105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AJ105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AK105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AL105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AM105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AN105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AO105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AP105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AQ105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AR105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
       <c r="AS105">
-        <v>5088359.032</v>
+        <v>1778429.437</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="K106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="L106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="M106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="N106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="O106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="P106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="Q106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="R106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="S106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="T106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="U106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="V106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="W106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="X106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="Y106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="Z106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AA106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AB106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AC106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AD106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AE106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AF106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AG106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AH106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AI106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AJ106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AK106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AL106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AM106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AN106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AO106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AP106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AQ106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AR106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
       <c r="AS106">
-        <v>1683017.387</v>
+        <v>214057.6979</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="K107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="L107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="M107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="N107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="O107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="P107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="Q107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="R107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="S107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="T107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="U107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="V107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="W107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="X107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="Y107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="Z107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AA107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AB107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AC107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AD107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AE107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AF107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AG107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AH107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AI107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AJ107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AK107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AL107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AM107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AN107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AO107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AP107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AQ107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AR107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
       <c r="AS107">
-        <v>1562425.896</v>
+        <v>7962037.544</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="K114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="L114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="M114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="N114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="O114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="P114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="Q114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="R114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="S114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="T114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="U114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="V114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="W114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="X114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="Y114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="Z114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AA114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AB114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AC114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AD114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AE114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AF114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AG114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AH114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AI114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AJ114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AK114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AL114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AM114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AN114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AO114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AP114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AQ114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AR114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
       <c r="AS114">
-        <v>42431.4457</v>
+        <v>6045.46759</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="K115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="L115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="M115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="N115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="O115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="P115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="Q115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="R115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="S115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="T115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="U115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="V115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="W115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="X115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="Y115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="Z115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AA115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AB115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AC115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AD115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AE115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AF115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AG115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AH115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AI115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AJ115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AK115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AL115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AM115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AN115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AO115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AP115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AQ115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AR115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
       <c r="AS115">
-        <v>208448.9348</v>
+        <v>7448734.738</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/colombia/model_input_variables_colombia_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.000939423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.994644141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.999572193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.023421672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.064491828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.982723829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.957587789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.082600015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.953739552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.012003163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.972380727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.960251594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.991818727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>13749417.12</v>
+        <v>32911258.1762285</v>
       </c>
       <c r="K96">
-        <v>13749417.12</v>
+        <v>36022205.0818748</v>
       </c>
       <c r="L96">
-        <v>13749417.12</v>
+        <v>26261299.4516478</v>
       </c>
       <c r="M96">
-        <v>13749417.12</v>
+        <v>16500891.6021309</v>
       </c>
       <c r="N96">
-        <v>13749417.12</v>
+        <v>17706517.2567408</v>
       </c>
       <c r="O96">
-        <v>13749417.12</v>
+        <v>13749417.1167582</v>
       </c>
       <c r="P96">
-        <v>13749417.12</v>
+        <v>13749420</v>
       </c>
       <c r="Q96">
-        <v>13749417.12</v>
+        <v>13408786.7197622</v>
       </c>
       <c r="R96">
-        <v>13749417.12</v>
+        <v>13076592.4159762</v>
       </c>
       <c r="S96">
-        <v>13749417.12</v>
+        <v>12752628.0182789</v>
       </c>
       <c r="T96">
-        <v>13749417.12</v>
+        <v>12436689.6358949</v>
       </c>
       <c r="U96">
-        <v>13749417.12</v>
+        <v>12128578.429315</v>
       </c>
       <c r="V96">
-        <v>13749417.12</v>
+        <v>11828100.4851545</v>
       </c>
       <c r="W96">
-        <v>13749417.12</v>
+        <v>11535066.6941117</v>
       </c>
       <c r="X96">
-        <v>13749417.12</v>
+        <v>11249292.6319493</v>
       </c>
       <c r="Y96">
-        <v>13749417.12</v>
+        <v>10970598.4434253</v>
       </c>
       <c r="Z96">
-        <v>13749417.12</v>
+        <v>10698808.7290987</v>
       </c>
       <c r="AA96">
-        <v>13749417.12</v>
+        <v>10433752.4349402</v>
       </c>
       <c r="AB96">
-        <v>13749417.12</v>
+        <v>10175262.7446767</v>
       </c>
       <c r="AC96">
-        <v>13749417.12</v>
+        <v>9923176.97480415</v>
       </c>
       <c r="AD96">
-        <v>13749417.12</v>
+        <v>9677336.47220058</v>
       </c>
       <c r="AE96">
-        <v>13749417.12</v>
+        <v>9437586.514275771</v>
       </c>
       <c r="AF96">
-        <v>13749417.12</v>
+        <v>9203776.21159495</v>
       </c>
       <c r="AG96">
-        <v>13749417.12</v>
+        <v>8975758.41291471</v>
       </c>
       <c r="AH96">
-        <v>13749417.12</v>
+        <v>8753389.612571631</v>
       </c>
       <c r="AI96">
-        <v>13749417.12</v>
+        <v>8536529.860165371</v>
       </c>
       <c r="AJ96">
-        <v>13749417.12</v>
+        <v>8325042.67247921</v>
       </c>
       <c r="AK96">
-        <v>13749417.12</v>
+        <v>8118794.94758273</v>
       </c>
       <c r="AL96">
-        <v>13749417.12</v>
+        <v>7917656.8810626</v>
       </c>
       <c r="AM96">
-        <v>13749417.12</v>
+        <v>7721501.88432866</v>
       </c>
       <c r="AN96">
-        <v>13749417.12</v>
+        <v>7530206.50494384</v>
       </c>
       <c r="AO96">
-        <v>13749417.12</v>
+        <v>7343650.34892803</v>
       </c>
       <c r="AP96">
-        <v>13749417.12</v>
+        <v>7161716.00498663</v>
       </c>
       <c r="AQ96">
-        <v>13749417.12</v>
+        <v>6984288.97061645</v>
       </c>
       <c r="AR96">
-        <v>13749417.12</v>
+        <v>6811257.58004218</v>
       </c>
       <c r="AS96">
-        <v>13749417.12</v>
+        <v>6642512.93393825</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>1749365.733</v>
+        <v>1821270.34506842</v>
       </c>
       <c r="K97">
-        <v>1749365.733</v>
+        <v>1794399.78037111</v>
       </c>
       <c r="L97">
-        <v>1749365.733</v>
+        <v>1951613.44684265</v>
       </c>
       <c r="M97">
-        <v>1749365.733</v>
+        <v>1944949.30753022</v>
       </c>
       <c r="N97">
-        <v>1749365.733</v>
+        <v>1760487.89625172</v>
       </c>
       <c r="O97">
-        <v>1749365.733</v>
+        <v>1749365.73264072</v>
       </c>
       <c r="P97">
-        <v>1749365.733</v>
+        <v>1749366</v>
       </c>
       <c r="Q97">
-        <v>1749365.733</v>
+        <v>1758927.30157165</v>
       </c>
       <c r="R97">
-        <v>1749365.733</v>
+        <v>1768540.8612115</v>
       </c>
       <c r="S97">
-        <v>1749365.733</v>
+        <v>1778206.96454026</v>
       </c>
       <c r="T97">
-        <v>1749365.733</v>
+        <v>1787925.89873972</v>
       </c>
       <c r="U97">
-        <v>1749365.733</v>
+        <v>1797697.95256128</v>
       </c>
       <c r="V97">
-        <v>1749365.733</v>
+        <v>1807523.41633453</v>
       </c>
       <c r="W97">
-        <v>1749365.733</v>
+        <v>1817402.58197591</v>
       </c>
       <c r="X97">
-        <v>1749365.733</v>
+        <v>1827335.74299731</v>
       </c>
       <c r="Y97">
-        <v>1749365.733</v>
+        <v>1837323.19451485</v>
       </c>
       <c r="Z97">
-        <v>1749365.733</v>
+        <v>1847365.23325765</v>
       </c>
       <c r="AA97">
-        <v>1749365.733</v>
+        <v>1857462.15757661</v>
       </c>
       <c r="AB97">
-        <v>1749365.733</v>
+        <v>1867614.26745328</v>
       </c>
       <c r="AC97">
-        <v>1749365.733</v>
+        <v>1877821.8645088</v>
       </c>
       <c r="AD97">
-        <v>1749365.733</v>
+        <v>1888085.25201284</v>
       </c>
       <c r="AE97">
-        <v>1749365.733</v>
+        <v>1898404.73489262</v>
       </c>
       <c r="AF97">
-        <v>1749365.733</v>
+        <v>1908780.61974196</v>
       </c>
       <c r="AG97">
-        <v>1749365.733</v>
+        <v>1919213.21483039</v>
       </c>
       <c r="AH97">
-        <v>1749365.733</v>
+        <v>1929702.83011232</v>
       </c>
       <c r="AI97">
-        <v>1749365.733</v>
+        <v>1940249.77723622</v>
       </c>
       <c r="AJ97">
-        <v>1749365.733</v>
+        <v>1950854.36955394</v>
       </c>
       <c r="AK97">
-        <v>1749365.733</v>
+        <v>1961516.92212994</v>
       </c>
       <c r="AL97">
-        <v>1749365.733</v>
+        <v>1972237.75175071</v>
       </c>
       <c r="AM97">
-        <v>1749365.733</v>
+        <v>1983017.17693416</v>
       </c>
       <c r="AN97">
-        <v>1749365.733</v>
+        <v>1993855.51793909</v>
       </c>
       <c r="AO97">
-        <v>1749365.733</v>
+        <v>2004753.09677468</v>
       </c>
       <c r="AP97">
-        <v>1749365.733</v>
+        <v>2015710.23721011</v>
       </c>
       <c r="AQ97">
-        <v>1749365.733</v>
+        <v>2026727.26478411</v>
       </c>
       <c r="AR97">
-        <v>1749365.733</v>
+        <v>2037804.50681469</v>
       </c>
       <c r="AS97">
-        <v>1749365.733</v>
+        <v>2048942.29240885</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>755604.8906</v>
+        <v>779565.851352044</v>
       </c>
       <c r="K98">
-        <v>755604.8906</v>
+        <v>675626.3514048971</v>
       </c>
       <c r="L98">
-        <v>755604.8906</v>
+        <v>760297.17393572</v>
       </c>
       <c r="M98">
-        <v>755604.8906</v>
+        <v>824366.235187944</v>
       </c>
       <c r="N98">
-        <v>755604.8906</v>
+        <v>854868.982061759</v>
       </c>
       <c r="O98">
-        <v>755604.8906</v>
+        <v>755604.8906280569</v>
       </c>
       <c r="P98">
-        <v>755604.8906</v>
+        <v>755604.9</v>
       </c>
       <c r="Q98">
-        <v>755604.8906</v>
+        <v>764010.490701168</v>
       </c>
       <c r="R98">
-        <v>755604.8906</v>
+        <v>772509.587883085</v>
       </c>
       <c r="S98">
-        <v>755604.8906</v>
+        <v>781103.231741764</v>
       </c>
       <c r="T98">
-        <v>755604.8906</v>
+        <v>789792.474044694</v>
       </c>
       <c r="U98">
-        <v>755604.8906</v>
+        <v>798578.378259559</v>
       </c>
       <c r="V98">
-        <v>755604.8906</v>
+        <v>807462.019684399</v>
       </c>
       <c r="W98">
-        <v>755604.8906</v>
+        <v>816444.485579215</v>
       </c>
       <c r="X98">
-        <v>755604.8906</v>
+        <v>825526.875299033</v>
       </c>
       <c r="Y98">
-        <v>755604.8906</v>
+        <v>834710.30042846</v>
       </c>
       <c r="Z98">
-        <v>755604.8906</v>
+        <v>843995.884917722</v>
       </c>
       <c r="AA98">
-        <v>755604.8906</v>
+        <v>853384.76522023</v>
       </c>
       <c r="AB98">
-        <v>755604.8906</v>
+        <v>862878.090431664</v>
       </c>
       <c r="AC98">
-        <v>755604.8906</v>
+        <v>872477.022430615</v>
       </c>
       <c r="AD98">
-        <v>755604.8906</v>
+        <v>882182.7360207801</v>
       </c>
       <c r="AE98">
-        <v>755604.8906</v>
+        <v>891996.419074751</v>
       </c>
       <c r="AF98">
-        <v>755604.8906</v>
+        <v>901919.2726793929</v>
       </c>
       <c r="AG98">
-        <v>755604.8906</v>
+        <v>911952.511282846</v>
       </c>
       <c r="AH98">
-        <v>755604.8906</v>
+        <v>922097.362843159</v>
       </c>
       <c r="AI98">
-        <v>755604.8906</v>
+        <v>932355.068978583</v>
       </c>
       <c r="AJ98">
-        <v>755604.8906</v>
+        <v>942726.885119523</v>
       </c>
       <c r="AK98">
-        <v>755604.8906</v>
+        <v>953214.080662195</v>
       </c>
       <c r="AL98">
-        <v>755604.8906</v>
+        <v>963817.939123987</v>
       </c>
       <c r="AM98">
-        <v>755604.8906</v>
+        <v>974539.7583005429</v>
       </c>
       <c r="AN98">
-        <v>755604.8906</v>
+        <v>985380.850424601</v>
       </c>
       <c r="AO98">
-        <v>755604.8906</v>
+        <v>996342.542326596</v>
       </c>
       <c r="AP98">
-        <v>755604.8906</v>
+        <v>1007426.17559705</v>
       </c>
       <c r="AQ98">
-        <v>755604.8906</v>
+        <v>1018633.10675077</v>
       </c>
       <c r="AR98">
-        <v>755604.8906</v>
+        <v>1029964.70739286</v>
       </c>
       <c r="AS98">
-        <v>755604.8906</v>
+        <v>1041422.3643866</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>111680.9084</v>
+        <v>133168.352563122</v>
       </c>
       <c r="K99">
-        <v>111680.9084</v>
+        <v>130585.601910494</v>
       </c>
       <c r="L99">
-        <v>111680.9084</v>
+        <v>144207.417603742</v>
       </c>
       <c r="M99">
-        <v>111680.9084</v>
+        <v>139790.068460354</v>
       </c>
       <c r="N99">
-        <v>111680.9084</v>
+        <v>124799.308558643</v>
       </c>
       <c r="O99">
-        <v>111680.9084</v>
+        <v>111680.908370495</v>
       </c>
       <c r="P99">
-        <v>111680.9084</v>
+        <v>111680.9</v>
       </c>
       <c r="Q99">
-        <v>111680.9084</v>
+        <v>108056.015546541</v>
       </c>
       <c r="R99">
-        <v>111680.9084</v>
+        <v>104548.785833515</v>
       </c>
       <c r="S99">
-        <v>111680.9084</v>
+        <v>101155.392080457</v>
       </c>
       <c r="T99">
-        <v>111680.9084</v>
+        <v>97872.1394550213</v>
       </c>
       <c r="U99">
-        <v>111680.9084</v>
+        <v>94695.4530499395</v>
       </c>
       <c r="V99">
-        <v>111680.9084</v>
+        <v>91621.8739905479</v>
       </c>
       <c r="W99">
-        <v>111680.9084</v>
+        <v>88648.0556686582</v>
       </c>
       <c r="X99">
-        <v>111680.9084</v>
+        <v>85770.7600986663</v>
       </c>
       <c r="Y99">
-        <v>111680.9084</v>
+        <v>82986.85439193359</v>
       </c>
       <c r="Z99">
-        <v>111680.9084</v>
+        <v>80293.3073456007</v>
       </c>
       <c r="AA99">
-        <v>111680.9084</v>
+        <v>77687.1861421192</v>
       </c>
       <c r="AB99">
-        <v>111680.9084</v>
+        <v>75165.65315590979</v>
       </c>
       <c r="AC99">
-        <v>111680.9084</v>
+        <v>72725.9628636667</v>
       </c>
       <c r="AD99">
-        <v>111680.9084</v>
+        <v>70365.4588549476</v>
       </c>
       <c r="AE99">
-        <v>111680.9084</v>
+        <v>68081.57093979089</v>
       </c>
       <c r="AF99">
-        <v>111680.9084</v>
+        <v>65871.8123502135</v>
       </c>
       <c r="AG99">
-        <v>111680.9084</v>
+        <v>63733.7770325408</v>
       </c>
       <c r="AH99">
-        <v>111680.9084</v>
+        <v>61665.1370276206</v>
       </c>
       <c r="AI99">
-        <v>111680.9084</v>
+        <v>59663.6399360691</v>
       </c>
       <c r="AJ99">
-        <v>111680.9084</v>
+        <v>57727.1064657886</v>
       </c>
       <c r="AK99">
-        <v>111680.9084</v>
+        <v>55853.4280590868</v>
       </c>
       <c r="AL99">
-        <v>111680.9084</v>
+        <v>54040.5645968136</v>
       </c>
       <c r="AM99">
-        <v>111680.9084</v>
+        <v>52286.5421770163</v>
       </c>
       <c r="AN99">
-        <v>111680.9084</v>
+        <v>50589.4509656936</v>
       </c>
       <c r="AO99">
-        <v>111680.9084</v>
+        <v>48947.4431173096</v>
       </c>
       <c r="AP99">
-        <v>111680.9084</v>
+        <v>47358.7307628022</v>
       </c>
       <c r="AQ99">
-        <v>111680.9084</v>
+        <v>45821.5840628952</v>
       </c>
       <c r="AR99">
-        <v>111680.9084</v>
+        <v>44334.3293245965</v>
       </c>
       <c r="AS99">
-        <v>111680.9084</v>
+        <v>42895.3471788287</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>9507.491603</v>
+        <v>6394.32128446739</v>
       </c>
       <c r="K100">
-        <v>9507.491603</v>
+        <v>9702.849729019381</v>
       </c>
       <c r="L100">
-        <v>9507.491603</v>
+        <v>25127.8507121488</v>
       </c>
       <c r="M100">
-        <v>9507.491603</v>
+        <v>120150.740466447</v>
       </c>
       <c r="N100">
-        <v>9507.491603</v>
+        <v>106320.201077339</v>
       </c>
       <c r="O100">
-        <v>9507.491603</v>
+        <v>9507.49160278724</v>
       </c>
       <c r="P100">
-        <v>9507.491603</v>
+        <v>9507.492</v>
       </c>
       <c r="Q100">
-        <v>9507.491603</v>
+        <v>12418.5786252479</v>
       </c>
       <c r="R100">
-        <v>9507.491603</v>
+        <v>16221.0070827789</v>
       </c>
       <c r="S100">
-        <v>9507.491603</v>
+        <v>21187.6961703668</v>
       </c>
       <c r="T100">
-        <v>9507.491603</v>
+        <v>27675.1293379541</v>
       </c>
       <c r="U100">
-        <v>9507.491603</v>
+        <v>36148.9412399492</v>
       </c>
       <c r="V100">
-        <v>9507.491603</v>
+        <v>47217.3386007346</v>
       </c>
       <c r="W100">
-        <v>9507.491603</v>
+        <v>61674.7541715706</v>
       </c>
       <c r="X100">
-        <v>9507.491603</v>
+        <v>80558.8670358582</v>
       </c>
       <c r="Y100">
-        <v>9507.491603</v>
+        <v>105225.081887599</v>
       </c>
       <c r="Z100">
-        <v>9507.491603</v>
+        <v>137443.813023382</v>
       </c>
       <c r="AA100">
-        <v>9507.491603</v>
+        <v>179527.555593498</v>
       </c>
       <c r="AB100">
-        <v>9507.491603</v>
+        <v>234496.864634377</v>
       </c>
       <c r="AC100">
-        <v>9507.491603</v>
+        <v>306297.155005349</v>
       </c>
       <c r="AD100">
-        <v>9507.491603</v>
+        <v>400081.883016433</v>
       </c>
       <c r="AE100">
-        <v>9507.491603</v>
+        <v>522582.435070868</v>
       </c>
       <c r="AF100">
-        <v>9507.491603</v>
+        <v>682591.272030634</v>
       </c>
       <c r="AG100">
-        <v>9507.491603</v>
+        <v>891593.006927632</v>
       </c>
       <c r="AH100">
-        <v>9507.491603</v>
+        <v>1164588.71153949</v>
       </c>
       <c r="AI100">
-        <v>9507.491603</v>
+        <v>1521172.61632503</v>
       </c>
       <c r="AJ100">
-        <v>9507.491603</v>
+        <v>1986938.48371436</v>
       </c>
       <c r="AK100">
-        <v>9507.491603</v>
+        <v>2595316.59700977</v>
       </c>
       <c r="AL100">
-        <v>9507.491603</v>
+        <v>3389973.21453193</v>
       </c>
       <c r="AM100">
-        <v>9507.491603</v>
+        <v>4427944.70951425</v>
       </c>
       <c r="AN100">
-        <v>9507.491603</v>
+        <v>5783731.34822024</v>
       </c>
       <c r="AO100">
-        <v>9507.491603</v>
+        <v>7554644.53666478</v>
       </c>
       <c r="AP100">
-        <v>9507.491603</v>
+        <v>9867791.333862919</v>
       </c>
       <c r="AQ100">
-        <v>9507.491603</v>
+        <v>12889197.5441175</v>
       </c>
       <c r="AR100">
-        <v>9507.491603</v>
+        <v>16835724.1970832</v>
       </c>
       <c r="AS100">
-        <v>9507.491603</v>
+        <v>21990632.7193823</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>5088359.032</v>
+        <v>4859671.44813464</v>
       </c>
       <c r="K101">
-        <v>5088359.032</v>
+        <v>4414087.79209886</v>
       </c>
       <c r="L101">
-        <v>5088359.032</v>
+        <v>5118680.07208115</v>
       </c>
       <c r="M101">
-        <v>5088359.032</v>
+        <v>5788758.88543161</v>
       </c>
       <c r="N101">
-        <v>5088359.032</v>
+        <v>5734734.61700357</v>
       </c>
       <c r="O101">
-        <v>5088359.032</v>
+        <v>5088359.03217788</v>
       </c>
       <c r="P101">
-        <v>5088359.032</v>
+        <v>5088359</v>
       </c>
       <c r="Q101">
-        <v>5088359.032</v>
+        <v>5081373.38783072</v>
       </c>
       <c r="R101">
-        <v>5088359.032</v>
+        <v>5074397.36593944</v>
       </c>
       <c r="S101">
-        <v>5088359.032</v>
+        <v>5067430.92116004</v>
       </c>
       <c r="T101">
-        <v>5088359.032</v>
+        <v>5060474.04034447</v>
       </c>
       <c r="U101">
-        <v>5088359.032</v>
+        <v>5053526.71036274</v>
       </c>
       <c r="V101">
-        <v>5088359.032</v>
+        <v>5046588.91810286</v>
       </c>
       <c r="W101">
-        <v>5088359.032</v>
+        <v>5039660.65047086</v>
       </c>
       <c r="X101">
-        <v>5088359.032</v>
+        <v>5032741.89439077</v>
       </c>
       <c r="Y101">
-        <v>5088359.032</v>
+        <v>5025832.63680452</v>
       </c>
       <c r="Z101">
-        <v>5088359.032</v>
+        <v>5018932.86467201</v>
       </c>
       <c r="AA101">
-        <v>5088359.032</v>
+        <v>5012042.56497102</v>
       </c>
       <c r="AB101">
-        <v>5088359.032</v>
+        <v>5005161.72469721</v>
       </c>
       <c r="AC101">
-        <v>5088359.032</v>
+        <v>4998290.3308641</v>
       </c>
       <c r="AD101">
-        <v>5088359.032</v>
+        <v>4991428.37050303</v>
       </c>
       <c r="AE101">
-        <v>5088359.032</v>
+        <v>4984575.83066316</v>
       </c>
       <c r="AF101">
-        <v>5088359.032</v>
+        <v>4977732.69841141</v>
       </c>
       <c r="AG101">
-        <v>5088359.032</v>
+        <v>4970898.96083247</v>
       </c>
       <c r="AH101">
-        <v>5088359.032</v>
+        <v>4964074.60502875</v>
       </c>
       <c r="AI101">
-        <v>5088359.032</v>
+        <v>4957259.61812038</v>
       </c>
       <c r="AJ101">
-        <v>5088359.032</v>
+        <v>4950453.98724516</v>
       </c>
       <c r="AK101">
-        <v>5088359.032</v>
+        <v>4943657.69955855</v>
       </c>
       <c r="AL101">
-        <v>5088359.032</v>
+        <v>4936870.74223365</v>
       </c>
       <c r="AM101">
-        <v>5088359.032</v>
+        <v>4930093.10246116</v>
       </c>
       <c r="AN101">
-        <v>5088359.032</v>
+        <v>4923324.76744937</v>
       </c>
       <c r="AO101">
-        <v>5088359.032</v>
+        <v>4916565.72442414</v>
       </c>
       <c r="AP101">
-        <v>5088359.032</v>
+        <v>4909815.96062886</v>
       </c>
       <c r="AQ101">
-        <v>5088359.032</v>
+        <v>4903075.46332443</v>
       </c>
       <c r="AR101">
-        <v>5088359.032</v>
+        <v>4896344.21978924</v>
       </c>
       <c r="AS101">
-        <v>5088359.032</v>
+        <v>4889622.21731914</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>3745338.76936162</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>2913442.03236817</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>4152546.97968396</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>4473863.92234947</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>4224351.11995317</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>6262779.60327476</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>6262780</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>7139163.684995</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>8138184.3400457</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>9277003.20021607</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>10575182.9622891</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>12055023.8339128</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>13741946.6078673</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>15664929.3419259</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>17857005.1456206</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>20355829.6249243</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>23204327.7324455</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>26451431.1347672</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>30152918.7634686</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>34372374.9888643</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>39182281.8760248</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>44665264.2859168</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>50915509.2100826</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>58040383.7202728</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>66162279.3262651</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>75420714.42435589</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>85974730.95250671</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>98005626.4220285</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>111720068.256802</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>127353643.938334</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>145174907.941256</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>165489994.977743</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>188647878.797452</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>215046366.878943</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>245138933.98974</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>279442512.002327</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>1683017.387</v>
+        <v>2006314.21271708</v>
       </c>
       <c r="K103">
-        <v>1683017.387</v>
+        <v>1813526.55085424</v>
       </c>
       <c r="L103">
-        <v>1683017.387</v>
+        <v>2026986.6410028</v>
       </c>
       <c r="M103">
-        <v>1683017.387</v>
+        <v>2000622.78613493</v>
       </c>
       <c r="N103">
-        <v>1683017.387</v>
+        <v>1857882.55902432</v>
       </c>
       <c r="O103">
-        <v>1683017.387</v>
+        <v>1683017.38732085</v>
       </c>
       <c r="P103">
-        <v>1683017.387</v>
+        <v>1683017</v>
       </c>
       <c r="Q103">
-        <v>1683017.387</v>
+        <v>1630880.34790247</v>
       </c>
       <c r="R103">
-        <v>1683017.387</v>
+        <v>1580358.78970592</v>
       </c>
       <c r="S103">
-        <v>1683017.387</v>
+        <v>1531402.29288612</v>
       </c>
       <c r="T103">
-        <v>1683017.387</v>
+        <v>1483962.37483088</v>
       </c>
       <c r="U103">
-        <v>1683017.387</v>
+        <v>1437992.05482676</v>
       </c>
       <c r="V103">
-        <v>1683017.387</v>
+        <v>1393445.80753305</v>
       </c>
       <c r="W103">
-        <v>1683017.387</v>
+        <v>1350279.51789717</v>
       </c>
       <c r="X103">
-        <v>1683017.387</v>
+        <v>1308450.43746659</v>
       </c>
       <c r="Y103">
-        <v>1683017.387</v>
+        <v>1267917.14205421</v>
       </c>
       <c r="Z103">
-        <v>1683017.387</v>
+        <v>1228639.49071512</v>
       </c>
       <c r="AA103">
-        <v>1683017.387</v>
+        <v>1190578.58599419</v>
       </c>
       <c r="AB103">
-        <v>1683017.387</v>
+        <v>1153696.73540519</v>
       </c>
       <c r="AC103">
-        <v>1683017.387</v>
+        <v>1117957.4141031</v>
       </c>
       <c r="AD103">
-        <v>1683017.387</v>
+        <v>1083325.22871285</v>
       </c>
       <c r="AE103">
-        <v>1683017.387</v>
+        <v>1049765.88227851</v>
       </c>
       <c r="AF103">
-        <v>1683017.387</v>
+        <v>1017246.14029836</v>
       </c>
       <c r="AG103">
-        <v>1683017.387</v>
+        <v>985733.7978120419</v>
       </c>
       <c r="AH103">
-        <v>1683017.387</v>
+        <v>955197.6475073789</v>
       </c>
       <c r="AI103">
-        <v>1683017.387</v>
+        <v>925607.448815107</v>
       </c>
       <c r="AJ103">
-        <v>1683017.387</v>
+        <v>896933.897961042</v>
       </c>
       <c r="AK103">
-        <v>1683017.387</v>
+        <v>869148.598945954</v>
       </c>
       <c r="AL103">
-        <v>1683017.387</v>
+        <v>842224.035424433</v>
       </c>
       <c r="AM103">
-        <v>1683017.387</v>
+        <v>816133.543454891</v>
       </c>
       <c r="AN103">
-        <v>1683017.387</v>
+        <v>790851.2850937271</v>
       </c>
       <c r="AO103">
-        <v>1683017.387</v>
+        <v>766352.222807478</v>
       </c>
       <c r="AP103">
-        <v>1683017.387</v>
+        <v>742612.094677648</v>
       </c>
       <c r="AQ103">
-        <v>1683017.387</v>
+        <v>719607.390373635</v>
       </c>
       <c r="AR103">
-        <v>1683017.387</v>
+        <v>697315.327869975</v>
       </c>
       <c r="AS103">
-        <v>1683017.387</v>
+        <v>675713.83088484</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>1562425.896</v>
+        <v>1631857.94805462</v>
       </c>
       <c r="K104">
-        <v>1562425.896</v>
+        <v>1568655.92841641</v>
       </c>
       <c r="L104">
-        <v>1562425.896</v>
+        <v>1692658.70706002</v>
       </c>
       <c r="M104">
-        <v>1562425.896</v>
+        <v>1822699.46956141</v>
       </c>
       <c r="N104">
-        <v>1562425.896</v>
+        <v>1737059.43275921</v>
       </c>
       <c r="O104">
-        <v>1562425.896</v>
+        <v>1562425.89597436</v>
       </c>
       <c r="P104">
-        <v>1562425.896</v>
+        <v>1562426</v>
       </c>
       <c r="Q104">
-        <v>1562425.896</v>
+        <v>1579071.07446444</v>
       </c>
       <c r="R104">
-        <v>1562425.896</v>
+        <v>1595893.47476954</v>
       </c>
       <c r="S104">
-        <v>1562425.896</v>
+        <v>1612895.09002994</v>
       </c>
       <c r="T104">
-        <v>1562425.896</v>
+        <v>1630077.82948568</v>
       </c>
       <c r="U104">
-        <v>1562425.896</v>
+        <v>1647443.6227166</v>
       </c>
       <c r="V104">
-        <v>1562425.896</v>
+        <v>1664994.41985905</v>
       </c>
       <c r="W104">
-        <v>1562425.896</v>
+        <v>1682732.19182484</v>
       </c>
       <c r="X104">
-        <v>1562425.896</v>
+        <v>1700658.93052263</v>
       </c>
       <c r="Y104">
-        <v>1562425.896</v>
+        <v>1718776.64908156</v>
       </c>
       <c r="Z104">
-        <v>1562425.896</v>
+        <v>1737087.38207736</v>
       </c>
       <c r="AA104">
-        <v>1562425.896</v>
+        <v>1755593.18576081</v>
       </c>
       <c r="AB104">
-        <v>1562425.896</v>
+        <v>1774296.13828864</v>
       </c>
       <c r="AC104">
-        <v>1562425.896</v>
+        <v>1793198.33995693</v>
       </c>
       <c r="AD104">
-        <v>1562425.896</v>
+        <v>1812301.91343695</v>
       </c>
       <c r="AE104">
-        <v>1562425.896</v>
+        <v>1831609.00401352</v>
       </c>
       <c r="AF104">
-        <v>1562425.896</v>
+        <v>1851121.77982597</v>
       </c>
       <c r="AG104">
-        <v>1562425.896</v>
+        <v>1870842.43211155</v>
       </c>
       <c r="AH104">
-        <v>1562425.896</v>
+        <v>1890773.17545154</v>
       </c>
       <c r="AI104">
-        <v>1562425.896</v>
+        <v>1910916.24801994</v>
       </c>
       <c r="AJ104">
-        <v>1562425.896</v>
+        <v>1931273.91183479</v>
       </c>
       <c r="AK104">
-        <v>1562425.896</v>
+        <v>1951848.45301224</v>
       </c>
       <c r="AL104">
-        <v>1562425.896</v>
+        <v>1972642.18202321</v>
       </c>
       <c r="AM104">
-        <v>1562425.896</v>
+        <v>1993657.43395288</v>
       </c>
       <c r="AN104">
-        <v>1562425.896</v>
+        <v>2014896.56876292</v>
       </c>
       <c r="AO104">
-        <v>1562425.896</v>
+        <v>2036361.97155653</v>
       </c>
       <c r="AP104">
-        <v>1562425.896</v>
+        <v>2058056.05284621</v>
       </c>
       <c r="AQ104">
-        <v>1562425.896</v>
+        <v>2079981.24882452</v>
       </c>
       <c r="AR104">
-        <v>1562425.896</v>
+        <v>2102140.02163764</v>
       </c>
       <c r="AS104">
-        <v>1562425.896</v>
+        <v>2124534.85966186</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>42431.4457</v>
+        <v>55088.1614983976</v>
       </c>
       <c r="K111">
-        <v>42431.4457</v>
+        <v>49014.6117604843</v>
       </c>
       <c r="L111">
-        <v>42431.4457</v>
+        <v>51617.6783539027</v>
       </c>
       <c r="M111">
-        <v>42431.4457</v>
+        <v>53291.828343684</v>
       </c>
       <c r="N111">
-        <v>42431.4457</v>
+        <v>51276.0823108382</v>
       </c>
       <c r="O111">
-        <v>42431.4457</v>
+        <v>42431.445699134</v>
       </c>
       <c r="P111">
-        <v>42431.4457</v>
+        <v>42431.45</v>
       </c>
       <c r="Q111">
-        <v>42431.4457</v>
+        <v>41223.6406427338</v>
       </c>
       <c r="R111">
-        <v>42431.4457</v>
+        <v>40050.2115256786</v>
       </c>
       <c r="S111">
-        <v>42431.4457</v>
+        <v>38910.1840168094</v>
       </c>
       <c r="T111">
-        <v>42431.4457</v>
+        <v>37802.6073408191</v>
       </c>
       <c r="U111">
-        <v>42431.4457</v>
+        <v>36726.5577861774</v>
       </c>
       <c r="V111">
-        <v>42431.4457</v>
+        <v>35681.1379347624</v>
       </c>
       <c r="W111">
-        <v>42431.4457</v>
+        <v>34665.4759134194</v>
       </c>
       <c r="X111">
-        <v>42431.4457</v>
+        <v>33678.7246668249</v>
       </c>
       <c r="Y111">
-        <v>42431.4457</v>
+        <v>32720.0612510476</v>
       </c>
       <c r="Z111">
-        <v>42431.4457</v>
+        <v>31788.6861472192</v>
       </c>
       <c r="AA111">
-        <v>42431.4457</v>
+        <v>30883.8225947408</v>
       </c>
       <c r="AB111">
-        <v>42431.4457</v>
+        <v>30004.7159434697</v>
       </c>
       <c r="AC111">
-        <v>42431.4457</v>
+        <v>29150.6330243464</v>
       </c>
       <c r="AD111">
-        <v>42431.4457</v>
+        <v>28320.8615379362</v>
       </c>
       <c r="AE111">
-        <v>42431.4457</v>
+        <v>27514.7094603767</v>
       </c>
       <c r="AF111">
-        <v>42431.4457</v>
+        <v>26731.5044662343</v>
       </c>
       <c r="AG111">
-        <v>42431.4457</v>
+        <v>25970.5933677892</v>
       </c>
       <c r="AH111">
-        <v>42431.4457</v>
+        <v>25231.3415702812</v>
       </c>
       <c r="AI111">
-        <v>42431.4457</v>
+        <v>24513.1325426621</v>
       </c>
       <c r="AJ111">
-        <v>42431.4457</v>
+        <v>23815.3673034131</v>
       </c>
       <c r="AK111">
-        <v>42431.4457</v>
+        <v>23137.4639209976</v>
       </c>
       <c r="AL111">
-        <v>42431.4457</v>
+        <v>22478.8570285348</v>
       </c>
       <c r="AM111">
-        <v>42431.4457</v>
+        <v>21838.9973522873</v>
       </c>
       <c r="AN111">
-        <v>42431.4457</v>
+        <v>21217.3512535703</v>
       </c>
       <c r="AO111">
-        <v>42431.4457</v>
+        <v>20613.4002837009</v>
       </c>
       <c r="AP111">
-        <v>42431.4457</v>
+        <v>20026.640751615</v>
       </c>
       <c r="AQ111">
-        <v>42431.4457</v>
+        <v>19456.5833037924</v>
       </c>
       <c r="AR111">
-        <v>42431.4457</v>
+        <v>18902.7525161396</v>
       </c>
       <c r="AS111">
-        <v>42431.4457</v>
+        <v>18364.6864974888</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>208448.9348</v>
+        <v>225158.454660243</v>
       </c>
       <c r="K112">
-        <v>208448.9348</v>
+        <v>215537.041772819</v>
       </c>
       <c r="L112">
-        <v>208448.9348</v>
+        <v>234342.202844008</v>
       </c>
       <c r="M112">
-        <v>208448.9348</v>
+        <v>248311.367671635</v>
       </c>
       <c r="N112">
-        <v>208448.9348</v>
+        <v>229378.223002267</v>
       </c>
       <c r="O112">
-        <v>208448.9348</v>
+        <v>208448.934767043</v>
       </c>
       <c r="P112">
-        <v>208448.9348</v>
+        <v>208448.9</v>
       </c>
       <c r="Q112">
-        <v>208448.9348</v>
+        <v>206008.07809043</v>
       </c>
       <c r="R112">
-        <v>208448.9348</v>
+        <v>203595.836862236</v>
       </c>
       <c r="S112">
-        <v>208448.9348</v>
+        <v>201211.841651368</v>
       </c>
       <c r="T112">
-        <v>208448.9348</v>
+        <v>198855.761712507</v>
       </c>
       <c r="U112">
-        <v>208448.9348</v>
+        <v>196527.27017318</v>
       </c>
       <c r="V112">
-        <v>208448.9348</v>
+        <v>194226.043988408</v>
       </c>
       <c r="W112">
-        <v>208448.9348</v>
+        <v>191951.763895896</v>
       </c>
       <c r="X112">
-        <v>208448.9348</v>
+        <v>189704.114371731</v>
       </c>
       <c r="Y112">
-        <v>208448.9348</v>
+        <v>187482.783586612</v>
       </c>
       <c r="Z112">
-        <v>208448.9348</v>
+        <v>185287.463362589</v>
       </c>
       <c r="AA112">
-        <v>208448.9348</v>
+        <v>183117.849130304</v>
       </c>
       <c r="AB112">
-        <v>208448.9348</v>
+        <v>180973.63988674</v>
       </c>
       <c r="AC112">
-        <v>208448.9348</v>
+        <v>178854.538153461</v>
       </c>
       <c r="AD112">
-        <v>208448.9348</v>
+        <v>176760.249935336</v>
       </c>
       <c r="AE112">
-        <v>208448.9348</v>
+        <v>174690.484679759</v>
       </c>
       <c r="AF112">
-        <v>208448.9348</v>
+        <v>172644.955236332</v>
       </c>
       <c r="AG112">
-        <v>208448.9348</v>
+        <v>170623.377817034</v>
       </c>
       <c r="AH112">
-        <v>208448.9348</v>
+        <v>168625.471956841</v>
       </c>
       <c r="AI112">
-        <v>208448.9348</v>
+        <v>166650.960474824</v>
       </c>
       <c r="AJ112">
-        <v>208448.9348</v>
+        <v>164699.569435687</v>
       </c>
       <c r="AK112">
-        <v>208448.9348</v>
+        <v>162771.028111768</v>
       </c>
       <c r="AL112">
-        <v>208448.9348</v>
+        <v>160865.068945476</v>
       </c>
       <c r="AM112">
-        <v>208448.9348</v>
+        <v>158981.427512172</v>
       </c>
       <c r="AN112">
-        <v>208448.9348</v>
+        <v>157119.842483484</v>
       </c>
       <c r="AO112">
-        <v>208448.9348</v>
+        <v>155280.055591052</v>
       </c>
       <c r="AP112">
-        <v>208448.9348</v>
+        <v>153461.811590695</v>
       </c>
       <c r="AQ112">
-        <v>208448.9348</v>
+        <v>151664.858227003</v>
       </c>
       <c r="AR112">
-        <v>208448.9348</v>
+        <v>149888.946198336</v>
       </c>
       <c r="AS112">
-        <v>208448.9348</v>
+        <v>148133.829122241</v>
       </c>
     </row>
     <row r="113" spans="1:45">
